--- a/files/templates/CLASS 1-12 STUDENT INFO.xlsx
+++ b/files/templates/CLASS 1-12 STUDENT INFO.xlsx
@@ -116,12 +116,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -221,50 +227,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -629,7 +628,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,104 +649,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1608,12 +1607,12 @@
     <mergeCell ref="A3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 A6:J6">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/templates/CLASS 1-12 STUDENT INFO.xlsx
+++ b/files/templates/CLASS 1-12 STUDENT INFO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Religion</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Admission Number</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -70,6 +64,15 @@
   </si>
   <si>
     <t>CLASS 1 (2017)</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Scholar Number</t>
   </si>
 </sst>
 </file>
@@ -227,9 +230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -258,12 +258,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -298,13 +350,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
@@ -625,132 +677,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="1" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -766,8 +824,9 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -782,9 +841,10 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -799,9 +859,10 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -816,9 +877,10 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -833,9 +895,10 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -850,9 +913,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -867,9 +931,10 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -884,9 +949,10 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -901,9 +967,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -918,9 +985,10 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -935,9 +1003,10 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -952,9 +1021,10 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -969,9 +1039,10 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -986,9 +1057,10 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1003,9 +1075,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1020,9 +1093,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1037,9 +1111,10 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1054,9 +1129,10 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1071,9 +1147,10 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1088,9 +1165,10 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1105,9 +1183,10 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1122,9 +1201,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1139,9 +1219,10 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1156,9 +1237,10 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1173,9 +1255,10 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1190,9 +1273,10 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="2"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1207,9 +1291,10 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="2"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1224,9 +1309,10 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="2"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1241,9 +1327,10 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="2"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1258,9 +1345,10 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="2"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1275,9 +1363,10 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="2"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1292,9 +1381,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="2"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1309,9 +1399,10 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="2"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1326,9 +1417,10 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="2"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1343,9 +1435,10 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="2"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1360,9 +1453,10 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="2"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1377,9 +1471,10 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="2"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1394,9 +1489,10 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="2"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1411,9 +1507,10 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="2"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1428,9 +1525,10 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="2"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1445,9 +1543,10 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="2"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1462,9 +1561,10 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="2"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1479,9 +1579,10 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="2"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1496,9 +1597,10 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="2"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1513,9 +1615,10 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="2"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1530,9 +1633,10 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1547,9 +1651,10 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="2"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1564,9 +1669,10 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="2"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1581,9 +1687,10 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="2"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1598,21 +1705,32 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="1"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:N6 A6:J6">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N6:O6 C6:K6">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P6">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1629,13 +1747,13 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>

--- a/files/templates/CLASS 1-12 STUDENT INFO.xlsx
+++ b/files/templates/CLASS 1-12 STUDENT INFO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Religion</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Scholar Number</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -266,28 +269,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -677,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +679,10 @@
     <col min="11" max="11" width="32.28515625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -718,8 +700,10 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -737,8 +721,10 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -756,9 +742,11 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -807,8 +795,11 @@
       <c r="P6" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -825,8 +816,9 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -842,9 +834,10 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -860,9 +853,10 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -878,9 +872,10 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -896,9 +891,10 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -914,9 +910,10 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -932,9 +929,10 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -950,9 +948,10 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -968,9 +967,10 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -986,9 +986,10 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1004,9 +1005,10 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1022,9 +1024,10 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1040,9 +1043,10 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1058,9 +1062,10 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1076,9 +1081,10 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1094,9 +1100,10 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1112,9 +1119,10 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1130,9 +1138,10 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1148,9 +1157,10 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1166,9 +1176,10 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1184,9 +1195,10 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1202,9 +1214,10 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1220,9 +1233,10 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1238,9 +1252,10 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1256,9 +1271,10 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1274,9 +1290,10 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1292,9 +1309,10 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1310,9 +1328,10 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1328,9 +1347,10 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="2"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1346,9 +1366,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1364,9 +1385,10 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1382,9 +1404,10 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1400,9 +1423,10 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1418,9 +1442,10 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="2"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1436,9 +1461,10 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="2"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1454,9 +1480,10 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1472,9 +1499,10 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1490,9 +1518,10 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="2"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1508,9 +1537,10 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="2"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1526,9 +1556,10 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="2"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1544,9 +1575,10 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="2"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1562,9 +1594,10 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="2"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1580,9 +1613,10 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="2"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1598,9 +1632,10 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="2"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1616,9 +1651,10 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1634,9 +1670,10 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1652,9 +1689,10 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P53" s="2"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1670,9 +1708,10 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="2"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1688,9 +1727,10 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P55" s="2"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1706,30 +1746,36 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="1"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6:O6 C6:K6">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C6:K6 N6:O6">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
